--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="环境搭建" sheetId="3" r:id="rId1"/>
     <sheet name="操作" sheetId="1" r:id="rId2"/>
+    <sheet name="mysql" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +218,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -233,8 +234,115 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0242F9AA-E909-4C68-B1CD-59DE73E2A3F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="114300"/>
+          <a:ext cx="7019925" cy="8153400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mysql -u root</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> -p  // cmd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>打开数据 （注意配置环境变量）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>show databases;           //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浏览数据     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注意不能缺失 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>;)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,6 +417,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -344,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E5:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -566,10 +708,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E4:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -646,4 +788,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF72CDC-3E6B-4816-9240-75DCDE3F0105}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -332,6 +332,8 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>;)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
